--- a/biology/Biochimie/Umetarō_Suzuki/Umetarō_Suzuki.xlsx
+++ b/biology/Biochimie/Umetarō_Suzuki/Umetarō_Suzuki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Umetar%C5%8D_Suzuki</t>
+          <t>Umetarō_Suzuki</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Umetarō Suzuki (鈴木 梅太郎, Suzuki Umetarō?) (7 avril 1874 – 20 septembre 1943) est un biochimiste japonais. Il est listé comme l'un des « Dix grands inventeurs japonais » en 1985 par l'office des brevets du Japon.
-En 1910, afin de guérir ses patients atteint par le béribéri, Suzuki réussit l’extraction d'un complexe de micro-nutriments solubles dans l'eau de brins de riz et le nomme « acide abérique ». Il publie le résultat de ses recherches dans le Tokyo Kagaku Kaishi, journal scientifique japonais[1].
-Lorsque l'article a été traduit en allemand, il n'a pas été spécifié qu'il s'agissait de la découverte d'un nouveau nutriment, assertion qui était présente dans l'original japonais, ce qui a empêché la publicité de l'article. Le biochimiste polonais Kazimierz Funk a isolé le même complexe en 1912 et l'a appelé « vitamine », contraction de « vital » et « amine »[2].
+En 1910, afin de guérir ses patients atteint par le béribéri, Suzuki réussit l’extraction d'un complexe de micro-nutriments solubles dans l'eau de brins de riz et le nomme « acide abérique ». Il publie le résultat de ses recherches dans le Tokyo Kagaku Kaishi, journal scientifique japonais.
+Lorsque l'article a été traduit en allemand, il n'a pas été spécifié qu'il s'agissait de la découverte d'un nouveau nutriment, assertion qui était présente dans l'original japonais, ce qui a empêché la publicité de l'article. Le biochimiste polonais Kazimierz Funk a isolé le même complexe en 1912 et l'a appelé « vitamine », contraction de « vital » et « amine ».
 </t>
         </is>
       </c>
